--- a/非機能要求一覧.xlsx
+++ b/非機能要求一覧.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22907"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A1A4527-A951-420F-820E-95980438A0B1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F681B18-FF1C-48B5-82E0-FFBB72E4D3EC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
-    <sheet name="非機能要求_例" sheetId="6" r:id="rId2"/>
+    <sheet name="非機能要求_例" sheetId="6" r:id="rId1"/>
+    <sheet name="非機能要求" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -55,6 +55,13 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>N: 非機能要求</t>
     <rPh sb="3" eb="4">
       <t>ヒ</t>
@@ -101,18 +108,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N01-01</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N01-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N01-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>N02</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -148,18 +143,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N02-01</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N02-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N02-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>N03</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -192,15 +175,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N03-01</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N03-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N03-03</t>
+    <t>―</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -246,11 +221,74 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>人間プレイヤーをコンピュータプレイヤーに変更しやすくする</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MUST</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>N04-02</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N04-03</t>
+    <t>※『メトリクスによる評価』を参考にする</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※講座「オブジェクト指向分析／設計」では、特に目標値を設定せず、計測結果とソースコードとの関係を確認することを目的とする。</t>
+    <rPh sb="1" eb="3">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モクテキ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -296,92 +334,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>N05-02</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>N05-03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>優先度</t>
-    <rPh sb="0" eb="3">
-      <t>ユウセンド</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>―</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>人間プレイヤーをコンピュータプレイヤーに変更しやすくする</t>
-    <rPh sb="0" eb="2">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>MUST</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>※『メトリクスによる評価』を参考にする</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※講座「オブジェクト指向分析／設計」では、特に目標値を設定せず、計測結果とソースコードとの関係を確認することを目的とする。</t>
-    <rPh sb="1" eb="3">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケイソク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>モクテキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>インターフェースをCUIからGUIに変更しやすくする</t>
     <rPh sb="18" eb="20">
       <t>ヘンコウ</t>
@@ -390,6 +342,57 @@
   </si>
   <si>
     <t>WANT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N01-01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N01-02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N01-03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N02-01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N02-02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N02-03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N03-01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N03-02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N03-03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>人間プレイヤーをコンピュータープレイヤーに変更しやすくする</t>
+  </si>
+  <si>
+    <t>N04-03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N05-02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N05-03</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -746,7 +749,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1065,628 +1068,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:E30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="256" width="3.625" style="1"/>
-    <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
-    <col min="259" max="259" width="8.625" style="1" customWidth="1"/>
-    <col min="260" max="260" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="512" width="3.625" style="1"/>
-    <col min="513" max="513" width="1.625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="5.625" style="1" customWidth="1"/>
-    <col min="515" max="515" width="8.625" style="1" customWidth="1"/>
-    <col min="516" max="516" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="768" width="3.625" style="1"/>
-    <col min="769" max="769" width="1.625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="5.625" style="1" customWidth="1"/>
-    <col min="771" max="771" width="8.625" style="1" customWidth="1"/>
-    <col min="772" max="772" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="1024" width="3.625" style="1"/>
-    <col min="1025" max="1025" width="1.625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="5.625" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="8.625" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1280" width="3.625" style="1"/>
-    <col min="1281" max="1281" width="1.625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="5.625" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="8.625" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1536" width="3.625" style="1"/>
-    <col min="1537" max="1537" width="1.625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="5.625" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="8.625" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1792" width="3.625" style="1"/>
-    <col min="1793" max="1793" width="1.625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="5.625" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="8.625" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="1798" max="2048" width="3.625" style="1"/>
-    <col min="2049" max="2049" width="1.625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="5.625" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="8.625" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2304" width="3.625" style="1"/>
-    <col min="2305" max="2305" width="1.625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="5.625" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="8.625" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2560" width="3.625" style="1"/>
-    <col min="2561" max="2561" width="1.625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="5.625" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="8.625" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2816" width="3.625" style="1"/>
-    <col min="2817" max="2817" width="1.625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="5.625" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="8.625" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2822" max="3072" width="3.625" style="1"/>
-    <col min="3073" max="3073" width="1.625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="5.625" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="8.625" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3328" width="3.625" style="1"/>
-    <col min="3329" max="3329" width="1.625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="5.625" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="8.625" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3584" width="3.625" style="1"/>
-    <col min="3585" max="3585" width="1.625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="5.625" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="8.625" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3840" width="3.625" style="1"/>
-    <col min="3841" max="3841" width="1.625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="5.625" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="8.625" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3846" max="4096" width="3.625" style="1"/>
-    <col min="4097" max="4097" width="1.625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="5.625" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="8.625" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4352" width="3.625" style="1"/>
-    <col min="4353" max="4353" width="1.625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="5.625" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="8.625" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4608" width="3.625" style="1"/>
-    <col min="4609" max="4609" width="1.625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="5.625" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="8.625" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4864" width="3.625" style="1"/>
-    <col min="4865" max="4865" width="1.625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="5.625" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="8.625" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4870" max="5120" width="3.625" style="1"/>
-    <col min="5121" max="5121" width="1.625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="5.625" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="8.625" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5376" width="3.625" style="1"/>
-    <col min="5377" max="5377" width="1.625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="5.625" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="8.625" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5632" width="3.625" style="1"/>
-    <col min="5633" max="5633" width="1.625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="5.625" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="8.625" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5888" width="3.625" style="1"/>
-    <col min="5889" max="5889" width="1.625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="5.625" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="8.625" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5894" max="6144" width="3.625" style="1"/>
-    <col min="6145" max="6145" width="1.625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="5.625" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="8.625" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6400" width="3.625" style="1"/>
-    <col min="6401" max="6401" width="1.625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="5.625" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="8.625" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6656" width="3.625" style="1"/>
-    <col min="6657" max="6657" width="1.625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="5.625" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="8.625" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6912" width="3.625" style="1"/>
-    <col min="6913" max="6913" width="1.625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="5.625" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="8.625" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6918" max="7168" width="3.625" style="1"/>
-    <col min="7169" max="7169" width="1.625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="5.625" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="8.625" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7424" width="3.625" style="1"/>
-    <col min="7425" max="7425" width="1.625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="5.625" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="8.625" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7680" width="3.625" style="1"/>
-    <col min="7681" max="7681" width="1.625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="5.625" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="8.625" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7936" width="3.625" style="1"/>
-    <col min="7937" max="7937" width="1.625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="5.625" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="8.625" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7942" max="8192" width="3.625" style="1"/>
-    <col min="8193" max="8193" width="1.625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="5.625" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="8.625" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8448" width="3.625" style="1"/>
-    <col min="8449" max="8449" width="1.625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="5.625" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="8.625" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8704" width="3.625" style="1"/>
-    <col min="8705" max="8705" width="1.625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="5.625" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="8.625" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8960" width="3.625" style="1"/>
-    <col min="8961" max="8961" width="1.625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="5.625" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="8.625" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8966" max="9216" width="3.625" style="1"/>
-    <col min="9217" max="9217" width="1.625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="5.625" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="8.625" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9472" width="3.625" style="1"/>
-    <col min="9473" max="9473" width="1.625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="5.625" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="8.625" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9728" width="3.625" style="1"/>
-    <col min="9729" max="9729" width="1.625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="5.625" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="8.625" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9984" width="3.625" style="1"/>
-    <col min="9985" max="9985" width="1.625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="5.625" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="8.625" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9990" max="10240" width="3.625" style="1"/>
-    <col min="10241" max="10241" width="1.625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="5.625" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="8.625" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10496" width="3.625" style="1"/>
-    <col min="10497" max="10497" width="1.625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="5.625" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="8.625" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10752" width="3.625" style="1"/>
-    <col min="10753" max="10753" width="1.625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="5.625" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="8.625" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10758" max="11008" width="3.625" style="1"/>
-    <col min="11009" max="11009" width="1.625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="5.625" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="8.625" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11264" width="3.625" style="1"/>
-    <col min="11265" max="11265" width="1.625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="5.625" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="8.625" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11520" width="3.625" style="1"/>
-    <col min="11521" max="11521" width="1.625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="5.625" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="8.625" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11776" width="3.625" style="1"/>
-    <col min="11777" max="11777" width="1.625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="5.625" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="8.625" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11782" max="12032" width="3.625" style="1"/>
-    <col min="12033" max="12033" width="1.625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="5.625" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="8.625" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12288" width="3.625" style="1"/>
-    <col min="12289" max="12289" width="1.625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="5.625" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="8.625" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12544" width="3.625" style="1"/>
-    <col min="12545" max="12545" width="1.625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="5.625" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="8.625" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12800" width="3.625" style="1"/>
-    <col min="12801" max="12801" width="1.625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="5.625" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="8.625" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12806" max="13056" width="3.625" style="1"/>
-    <col min="13057" max="13057" width="1.625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="5.625" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="8.625" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13312" width="3.625" style="1"/>
-    <col min="13313" max="13313" width="1.625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="5.625" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="8.625" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13568" width="3.625" style="1"/>
-    <col min="13569" max="13569" width="1.625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="5.625" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="8.625" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13824" width="3.625" style="1"/>
-    <col min="13825" max="13825" width="1.625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="5.625" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="8.625" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13830" max="14080" width="3.625" style="1"/>
-    <col min="14081" max="14081" width="1.625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="5.625" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="8.625" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14336" width="3.625" style="1"/>
-    <col min="14337" max="14337" width="1.625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="5.625" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="8.625" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14592" width="3.625" style="1"/>
-    <col min="14593" max="14593" width="1.625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="5.625" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="8.625" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14848" width="3.625" style="1"/>
-    <col min="14849" max="14849" width="1.625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="5.625" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="8.625" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14854" max="15104" width="3.625" style="1"/>
-    <col min="15105" max="15105" width="1.625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="5.625" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="8.625" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15360" width="3.625" style="1"/>
-    <col min="15361" max="15361" width="1.625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="5.625" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="8.625" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15616" width="3.625" style="1"/>
-    <col min="15617" max="15617" width="1.625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="5.625" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="8.625" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15872" width="3.625" style="1"/>
-    <col min="15873" max="15873" width="1.625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="5.625" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="8.625" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15878" max="16128" width="3.625" style="1"/>
-    <col min="16129" max="16129" width="1.625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="5.625" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="8.625" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16384" width="3.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="9" customHeight="1"/>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="5" spans="2:5" ht="40.15" customHeight="1">
-      <c r="B5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="9" customHeight="1"/>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:5" ht="16.149999999999999">
-      <c r="B15" s="11"/>
-      <c r="C15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="11"/>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.149999999999999">
-      <c r="B18" s="11"/>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.149999999999999">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="C23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="C25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="2:5" ht="16.149999999999999">
-      <c r="B26" s="11"/>
-      <c r="C26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="2:5" ht="9" customHeight="1"/>
-    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="D30" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:D7"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;R&amp;"メイリオ,レギュラー"&amp;10要求一覧</oddHeader>
-    <oddFooter>&amp;C&amp;"メイリオ,レギュラー"&amp;10Copyright (C) 2012 OGIS-RI Co., Ltd. All rights reserved.&amp;R&amp;"メイリオ,レギュラー"&amp;10R01-&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2095,27 +1483,27 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="23"/>
       <c r="F7" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="18"/>
@@ -2130,10 +1518,10 @@
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="18"/>
@@ -2148,10 +1536,10 @@
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="18"/>
@@ -2162,16 +1550,16 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="20" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="21"/>
@@ -2180,37 +1568,37 @@
     <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="24"/>
       <c r="C15" s="25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" ht="67.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="18"/>
@@ -2219,13 +1607,13 @@
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="16"/>
       <c r="C18" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -2240,6 +1628,623 @@
     <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R&amp;"メイリオ,レギュラー"&amp;10要求一覧</oddHeader>
+    <oddFooter>&amp;C&amp;"メイリオ,レギュラー"&amp;10Copyright (C) 2012 OGIS-RI Co., Ltd. All rights reserved.&amp;R&amp;"メイリオ,レギュラー"&amp;10R01-&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:E30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="256" width="3.625" style="1"/>
+    <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
+    <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="8.625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="512" width="3.625" style="1"/>
+    <col min="513" max="513" width="1.625" style="1" customWidth="1"/>
+    <col min="514" max="514" width="5.625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="8.625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="768" width="3.625" style="1"/>
+    <col min="769" max="769" width="1.625" style="1" customWidth="1"/>
+    <col min="770" max="770" width="5.625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="8.625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="1024" width="3.625" style="1"/>
+    <col min="1025" max="1025" width="1.625" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="5.625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="8.625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1280" width="3.625" style="1"/>
+    <col min="1281" max="1281" width="1.625" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="5.625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="8.625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1536" width="3.625" style="1"/>
+    <col min="1537" max="1537" width="1.625" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="5.625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="8.625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1792" width="3.625" style="1"/>
+    <col min="1793" max="1793" width="1.625" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="5.625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="8.625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2048" width="3.625" style="1"/>
+    <col min="2049" max="2049" width="1.625" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="5.625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="8.625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2304" width="3.625" style="1"/>
+    <col min="2305" max="2305" width="1.625" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="5.625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="8.625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2560" width="3.625" style="1"/>
+    <col min="2561" max="2561" width="1.625" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="5.625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="8.625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2816" width="3.625" style="1"/>
+    <col min="2817" max="2817" width="1.625" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="5.625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="8.625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3072" width="3.625" style="1"/>
+    <col min="3073" max="3073" width="1.625" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="5.625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="8.625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3328" width="3.625" style="1"/>
+    <col min="3329" max="3329" width="1.625" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="5.625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="8.625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3584" width="3.625" style="1"/>
+    <col min="3585" max="3585" width="1.625" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="5.625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="8.625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3840" width="3.625" style="1"/>
+    <col min="3841" max="3841" width="1.625" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="5.625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="8.625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4096" width="3.625" style="1"/>
+    <col min="4097" max="4097" width="1.625" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="5.625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="8.625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4352" width="3.625" style="1"/>
+    <col min="4353" max="4353" width="1.625" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="5.625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="8.625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4608" width="3.625" style="1"/>
+    <col min="4609" max="4609" width="1.625" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="5.625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="8.625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4864" width="3.625" style="1"/>
+    <col min="4865" max="4865" width="1.625" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="5.625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="8.625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5120" width="3.625" style="1"/>
+    <col min="5121" max="5121" width="1.625" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="5.625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="8.625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5376" width="3.625" style="1"/>
+    <col min="5377" max="5377" width="1.625" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="5.625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="8.625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5632" width="3.625" style="1"/>
+    <col min="5633" max="5633" width="1.625" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="5.625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="8.625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5888" width="3.625" style="1"/>
+    <col min="5889" max="5889" width="1.625" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="5.625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="8.625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6144" width="3.625" style="1"/>
+    <col min="6145" max="6145" width="1.625" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="5.625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="8.625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6400" width="3.625" style="1"/>
+    <col min="6401" max="6401" width="1.625" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="5.625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="8.625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6656" width="3.625" style="1"/>
+    <col min="6657" max="6657" width="1.625" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="5.625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="8.625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6912" width="3.625" style="1"/>
+    <col min="6913" max="6913" width="1.625" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="5.625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="8.625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7168" width="3.625" style="1"/>
+    <col min="7169" max="7169" width="1.625" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="5.625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="8.625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7424" width="3.625" style="1"/>
+    <col min="7425" max="7425" width="1.625" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="5.625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="8.625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7680" width="3.625" style="1"/>
+    <col min="7681" max="7681" width="1.625" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="5.625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="8.625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7936" width="3.625" style="1"/>
+    <col min="7937" max="7937" width="1.625" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="5.625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="8.625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8192" width="3.625" style="1"/>
+    <col min="8193" max="8193" width="1.625" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="5.625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="8.625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8448" width="3.625" style="1"/>
+    <col min="8449" max="8449" width="1.625" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="5.625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="8.625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8704" width="3.625" style="1"/>
+    <col min="8705" max="8705" width="1.625" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="5.625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="8.625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8960" width="3.625" style="1"/>
+    <col min="8961" max="8961" width="1.625" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="5.625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="8.625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9216" width="3.625" style="1"/>
+    <col min="9217" max="9217" width="1.625" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="5.625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="8.625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9472" width="3.625" style="1"/>
+    <col min="9473" max="9473" width="1.625" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="5.625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="8.625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9728" width="3.625" style="1"/>
+    <col min="9729" max="9729" width="1.625" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="5.625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="8.625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9984" width="3.625" style="1"/>
+    <col min="9985" max="9985" width="1.625" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="5.625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="8.625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10240" width="3.625" style="1"/>
+    <col min="10241" max="10241" width="1.625" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="5.625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="8.625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10496" width="3.625" style="1"/>
+    <col min="10497" max="10497" width="1.625" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="5.625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="8.625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10752" width="3.625" style="1"/>
+    <col min="10753" max="10753" width="1.625" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="5.625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="8.625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11008" width="3.625" style="1"/>
+    <col min="11009" max="11009" width="1.625" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="5.625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="8.625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11264" width="3.625" style="1"/>
+    <col min="11265" max="11265" width="1.625" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="5.625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="8.625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11520" width="3.625" style="1"/>
+    <col min="11521" max="11521" width="1.625" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="5.625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="8.625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11776" width="3.625" style="1"/>
+    <col min="11777" max="11777" width="1.625" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="5.625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="8.625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12032" width="3.625" style="1"/>
+    <col min="12033" max="12033" width="1.625" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="5.625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="8.625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12288" width="3.625" style="1"/>
+    <col min="12289" max="12289" width="1.625" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="5.625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="8.625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12544" width="3.625" style="1"/>
+    <col min="12545" max="12545" width="1.625" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="5.625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="8.625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12800" width="3.625" style="1"/>
+    <col min="12801" max="12801" width="1.625" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="5.625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="8.625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13056" width="3.625" style="1"/>
+    <col min="13057" max="13057" width="1.625" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="5.625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="8.625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13312" width="3.625" style="1"/>
+    <col min="13313" max="13313" width="1.625" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="5.625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="8.625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13568" width="3.625" style="1"/>
+    <col min="13569" max="13569" width="1.625" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="5.625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="8.625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13824" width="3.625" style="1"/>
+    <col min="13825" max="13825" width="1.625" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="5.625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="8.625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14080" width="3.625" style="1"/>
+    <col min="14081" max="14081" width="1.625" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="5.625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="8.625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14336" width="3.625" style="1"/>
+    <col min="14337" max="14337" width="1.625" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="5.625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="8.625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14592" width="3.625" style="1"/>
+    <col min="14593" max="14593" width="1.625" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="5.625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="8.625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14848" width="3.625" style="1"/>
+    <col min="14849" max="14849" width="1.625" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="5.625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="8.625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15104" width="3.625" style="1"/>
+    <col min="15105" max="15105" width="1.625" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="5.625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="8.625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15360" width="3.625" style="1"/>
+    <col min="15361" max="15361" width="1.625" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="5.625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="8.625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15616" width="3.625" style="1"/>
+    <col min="15617" max="15617" width="1.625" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="5.625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="8.625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15872" width="3.625" style="1"/>
+    <col min="15873" max="15873" width="1.625" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="5.625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="8.625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16128" width="3.625" style="1"/>
+    <col min="16129" max="16129" width="1.625" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="5.625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="8.625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="9" customHeight="1"/>
+    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="5" spans="2:5" ht="40.15" customHeight="1">
+      <c r="B5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="9" customHeight="1"/>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" ht="19.5" customHeight="1">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="11"/>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" ht="12">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="11"/>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="12">
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="11"/>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="12">
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="11"/>
+      <c r="C25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" ht="12">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="16"/>
+      <c r="C27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" ht="9" customHeight="1"/>
+    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="D30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2434,12 +2439,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2448,14 +2447,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A176BD33-CC9A-48C4-8B8E-F95C267B5AD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A176BD33-CC9A-48C4-8B8E-F95C267B5AD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>